--- a/biology/Zoologie/Camponotus_rufoglaucus/Camponotus_rufoglaucus.xlsx
+++ b/biology/Zoologie/Camponotus_rufoglaucus/Camponotus_rufoglaucus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camponotus rufoglaucus est une espèce de fourmis. 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Thomas Caverhill Jerdon sur la base de spécimens collectés dans le Sud de l'Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Thomas Caverhill Jerdon sur la base de spécimens collectés dans le Sud de l'Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrières mesurent environ 7,5 mm et les soldats 9,5 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrières mesurent environ 7,5 mm et les soldats 9,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (28 février 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (28 février 2021) :
 sous-espèce Camponotus rufoglaucus controversus Santschi, 1916
 sous-espèce Camponotus rufoglaucus latericius Stitz, 1923
 sous-espèce Camponotus rufoglaucus rufoglaucus (Jerdon, 1851)
@@ -610,9 +628,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce type de fourmis se nourrit principalement en dérobant de la nourriture à des ouvrières d'une autre espèce comme les Camponotus sericeus. Pour cela, elles tendent des guet-apens aux entrées du nid de leurs adversaires et leur dérobent au dernier moment. Elles ne pratiquent pas de stratégies invasives (voir Solenopsis fugax)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de fourmis se nourrit principalement en dérobant de la nourriture à des ouvrières d'une autre espèce comme les Camponotus sericeus. Pour cela, elles tendent des guet-apens aux entrées du nid de leurs adversaires et leur dérobent au dernier moment. Elles ne pratiquent pas de stratégies invasives (voir Solenopsis fugax).
 </t>
         </is>
       </c>
